--- a/data/trans_bre/BARTHEL_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/BARTHEL_R3-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>17.54543097109044</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17.844392802999</v>
+        <v>17.84439280299899</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2354045780656452</v>
@@ -649,7 +649,7 @@
         <v>0.8413879624337204</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4542930803627146</v>
+        <v>0.4542930803627143</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.196107411521504</v>
+        <v>-4.427484788621037</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7759465945286194</v>
+        <v>-0.01801980174282345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.936561913623624</v>
+        <v>9.130343899789082</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.623848410047814</v>
+        <v>5.190455175558084</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1623824054078599</v>
+        <v>-0.1838558114184092</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01444159616957794</v>
+        <v>-0.001121569950584399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3413534218755866</v>
+        <v>0.3504036643621847</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.145161094843258</v>
+        <v>0.1182708747029953</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>13.65111135512807</v>
+        <v>13.12577780298889</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.7723736476709</v>
+        <v>21.36688205463276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.74757907152016</v>
+        <v>25.9375854706617</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28.94208545238886</v>
+        <v>28.77985205968402</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9655591610660488</v>
+        <v>0.8594612196167972</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.095569121479333</v>
+        <v>1.078889707757018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.566151613098277</v>
+        <v>1.642371650845401</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9549031749419502</v>
+        <v>0.9459297785347802</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.9847870370395433</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.6697678380812654</v>
+        <v>0.6697678380812655</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.049152511734876</v>
+        <v>-1.243799198625757</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.472458825810406</v>
+        <v>5.392203723124835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.594875011855189</v>
+        <v>6.054322823975115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8.922144312124031</v>
+        <v>8.529867315254673</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.0797607684528496</v>
+        <v>-0.09439726248612074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1544337114880776</v>
+        <v>0.1932931743516248</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3481735351055444</v>
+        <v>0.2823607389163859</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3330673768755146</v>
+        <v>0.3210486099925133</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>14.10143291162262</v>
+        <v>13.39852704783167</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>22.51204561355061</v>
+        <v>23.32562120690412</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22.73163685650519</v>
+        <v>23.67781790913004</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>21.68636518724439</v>
+        <v>21.76376099529509</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.497285745935804</v>
+        <v>1.374920416612591</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.515176657876612</v>
+        <v>1.614742810939759</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2.102685495070783</v>
+        <v>2.048340090795414</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.12089577629025</v>
+        <v>1.107941540357659</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.372486282597936</v>
+        <v>-2.09722798877455</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.824824496160991</v>
+        <v>0.5196497929888511</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.874075094159683</v>
+        <v>6.966225508638217</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11.24510519385726</v>
+        <v>10.89355294006972</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1448246538922815</v>
+        <v>-0.1998480136526087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07349389356928512</v>
+        <v>0.01897965381124332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3795644689148622</v>
+        <v>0.4245664416701367</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6514088300193864</v>
+        <v>0.6309137215806592</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.01966462907014</v>
+        <v>13.9241276779386</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.5436929832242</v>
+        <v>18.563141740271</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.9398904168342</v>
+        <v>24.74497438335174</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.95853737742518</v>
+        <v>22.37813221421796</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.082103854294577</v>
+        <v>2.073527639643664</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.824261090157732</v>
+        <v>1.773939880427993</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.654248188906781</v>
+        <v>2.915904108881861</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.873315536151184</v>
+        <v>1.887959243370223</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.462226957182596</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7.006654683138994</v>
+        <v>7.006654683138999</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.960396169404427</v>
@@ -949,7 +949,7 @@
         <v>0.02161802920116544</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3318145494028076</v>
+        <v>0.3318145494028078</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.834229301987055</v>
+        <v>-1.199842504830633</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.825611316341078</v>
+        <v>-3.142018557022926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.73672479337662</v>
+        <v>-11.7648347334416</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.5213583587965838</v>
+        <v>0.488006856923564</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4319044021022057</v>
+        <v>-0.5124380540499486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.134612673130353</v>
+        <v>-0.1454476296136871</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.419038830465298</v>
+        <v>-0.4495371282763478</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.02044263633427514</v>
+        <v>0.01421781209382918</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>24.78042674119711</v>
+        <v>25.97859544458104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>26.12324714406778</v>
+        <v>26.16246228789795</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.23803695897399</v>
+        <v>12.18864282959531</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13.29839290261036</v>
+        <v>13.57450947261597</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>15.84826871264013</v>
+        <v>13.54012962868893</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.758197768463303</v>
+        <v>2.844471377232974</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8698717758347615</v>
+        <v>0.7658643354350546</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7581858092945407</v>
+        <v>0.7571935126327961</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>0.834451776450558</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.75192031673653</v>
+        <v>0.7519203167365298</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.270606605755276</v>
+        <v>3.336837668908705</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>7.215580381230124</v>
+        <v>7.175158107141488</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.137694015016505</v>
+        <v>9.628854792151184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12.46055528400391</v>
+        <v>12.1713386269622</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2049513677003296</v>
+        <v>0.1920571956196166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3289289503499471</v>
+        <v>0.3300209017574974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4817775911129997</v>
+        <v>0.4995724839790027</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5339200761567591</v>
+        <v>0.5067992440433025</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.62219765622241</v>
+        <v>11.77582669742124</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.55315016933584</v>
+        <v>17.20808480891075</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18.69364693302746</v>
+        <v>19.16421207601514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.33035104856616</v>
+        <v>19.33668063926096</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.066042359940579</v>
+        <v>1.045403144629035</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.111451977937667</v>
+        <v>1.045541449772498</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.255230056913337</v>
+        <v>1.334449832375113</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.9989004834121018</v>
+        <v>0.981890209273796</v>
       </c>
     </row>
     <row r="19">
